--- a/medicine/Enfance/Nele_Neuhaus/Nele_Neuhaus.xlsx
+++ b/medicine/Enfance/Nele_Neuhaus/Nele_Neuhaus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornelia « Nele » Neuhaus, née le 20 juin 1967 à Münster, en Westphalie, est une écrivaine allemande, auteure de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nele Nehaus naît en 1967 dans une famille de quatre enfants. Elle grandit à Paderborn jusqu'à ses 11 ans, âge à laquelle elle déménage avec sa famille dans la région du Taunus quand son père, Bernward Löwenberg, est nommé membre du parlement local de l'arrondissement de Main-Taunus. Dès son plus jeune âge, Neuhaus développe un penchant pour l'écriture. 
 Après des études au secondaire, elle étudie le droit et la philologie allemande, avant de laisser tomber après quelques semestres. 
@@ -547,33 +561,192 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Série Oliver von Bodenstein et Pia Kirchhoff
-(de) Eine unbeliebte Frau, 2009
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Oliver von Bodenstein et Pia Kirchhoff</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(de) Eine unbeliebte Frau, 2009
 (de) Mordsfreunde, 2009
 Flétrissure, Actes Sud, coll. « Actes noirs », 2011 ((de) Tiefe Wunden, 2009), trad. Jacqueline Chambon, 357 p.  (ISBN 978-2-7427-9908-4)Réédition, Actes Sud, coll. « Babel noir » no 66, 2012, 496 p.  (ISBN 978-2330-01304-2)
-Blanche-Neige doit mourir[1], Actes Sud, coll. « Actes noirs », 2012 ((de) Schneewittchen muss sterben, 2010), trad. Jacqueline Chambon, 395 p.  (ISBN 978-2-330-01248-9)Réédition, Actes Sud, coll. « Babel noir » no 99, 2013, 516 p.  (ISBN 978-2330-01875-7)
+Blanche-Neige doit mourir, Actes Sud, coll. « Actes noirs », 2012 ((de) Schneewittchen muss sterben, 2010), trad. Jacqueline Chambon, 395 p.  (ISBN 978-2-330-01248-9)Réédition, Actes Sud, coll. « Babel noir » no 99, 2013, 516 p.  (ISBN 978-2330-01875-7)
 Vent de sang, Actes Sud, coll. « Actes noirs », 2013 ((de) Wer Wind sät, 2011), trad. Jacqueline Chambon, 448 p.  (ISBN 978-2330-02505-2)Réédition, Actes Sud, coll. « Babel noir » no 124, 2015, 561 p.  (ISBN 978-2330-03943-1)
 Méchant Loup, Actes Sud, coll. « Actes noirs », 2014 ((de) Böser Wolf, 2012), trad. Jacqueline Chambon, 402 p.  (ISBN 978-2-330-03475-7)Réédition, Actes Sud, coll. « Babel noir » no 148, 2016, 517 p.  (ISBN 978-2330-05874-6)
 Les Vivants et les Morts, Actes Sud, coll. « Actes noirs », 2016 ((de) Die Lebenden und die Toten, 2014), trad. Juliette Aubert, 491 p.  (ISBN 978-2-330-05785-5)Réédition, Actes Sud, coll. « Babel noir » no 176, 2017, 576 p.  (ISBN 978-2330-07605-4)
 Promenons-nous dans ce bois, Calmann-Lévy, 2018 ((de) Im Wald, 2016), trad. Elisabeth Landes, 539 p.  (ISBN 978-2-7021-6422-8)
 Les oubliées du printemps, Calmann-Lévy, 2020 ((de) Muttertag, 2018), trad. Elisabeth Landes, 544 p.  (ISBN 978-2-3665-8308-3)
-Amitié éternelle, Actes Sud, coll. « Actes noirs », 2024 ((de) In ewiger Freundschaft, 2021), trad. Juliette Aubert, 560 p.  (ISBN 978-2-330-18529-9)
-Romans indépendants
-(de) Unter Haien, 2009
-(de) Sommer der Wahrheit, 2014Sous le nom de Nele Löwenberg.
-Ouvrages de littérature d'enfance et de jeunesse
-Série Elena
-Une vie au galop, Actes Sud, coll. « Actes Sud Junior », 2012 ((de) Elena – ein Leben für Pferde. Band 1: Gegen alle Hindernisse, 2011), trad. Brigitte Déchin, 336 p.  (ISBN 978-2-330-00594-8)
+Amitié éternelle, Actes Sud, coll. « Actes noirs », 2024 ((de) In ewiger Freundschaft, 2021), trad. Juliette Aubert, 560 p.  (ISBN 978-2-330-18529-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nele_Neuhaus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nele_Neuhaus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(de) Unter Haien, 2009
+(de) Sommer der Wahrheit, 2014Sous le nom de Nele Löwenberg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nele_Neuhaus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nele_Neuhaus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Elena</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une vie au galop, Actes Sud, coll. « Actes Sud Junior », 2012 ((de) Elena – ein Leben für Pferde. Band 1: Gegen alle Hindernisse, 2011), trad. Brigitte Déchin, 336 p.  (ISBN 978-2-330-00594-8)
 L'Été au galop, Actes Sud, coll. « Actes Sud Junior », 2013 ((de) Elena – ein Leben für Pferde. Band 2: Sommer der Entscheidung, 2011), trad. Brigitte Déchin, 288 p.  (ISBN 978-2-330-01921-1)
 (de) Elena - ein Leben für Pferde. Band 3: Schatten über dem Turnier, 2013
-(de) Elena - Ein Leben für Pferde. Band 4: Elena, Das Geheimnis der Oaktree-Farm, 2014
-Série Charlottes Traumpferd
-(de) Charlottes Traumpferd: Planet Girl, 2012
+(de) Elena - Ein Leben für Pferde. Band 4: Elena, Das Geheimnis der Oaktree-Farm, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nele_Neuhaus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nele_Neuhaus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Charlottes Traumpferd</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(de) Charlottes Traumpferd: Planet Girl, 2012
 (de) Charlottes Traumpferd: Gefahr auf dem Reiterhof, 2012
-(de) Charlottes Traumpferd: Ein unerwarteter Besucher, 2014
-Ouvrages indépendants
-(de) Das Pferd aus Frankreich, 2007</t>
+(de) Charlottes Traumpferd: Ein unerwarteter Besucher, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nele_Neuhaus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nele_Neuhaus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ouvrages indépendants</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(de) Das Pferd aus Frankreich, 2007</t>
         </is>
       </c>
     </row>
